--- a/report/tables/ZEV/ICCT.xlsx
+++ b/report/tables/ZEV/ICCT.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">ICCT</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
@@ -33,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blog on 'Inertia of outdated regulation'</t>
   </si>
   <si>
     <t xml:space="preserve">Completed</t>
@@ -54,18 +60,30 @@
 easy to achieve, but also that standards could/should be tightened based on the available cost-effective technology pathway. Blog published on January 13, 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Blog 'Stringent efficiency targets can be an industrial policy for Atmanirbhar Bharat'</t>
+  </si>
+  <si>
     <t xml:space="preserve">The objective of the vehicle fuel efficiency work is to get India to adopt 2025-2030 standards on par 
 with the EU standards. ICCT also has had to expend some energy in preventing the backsliding of existing FY2022-23 standards through a blog 'Stringent efficiency targets can be an industrial policy for Atmanirbhar Bharat'. According to ICCT, preventing such backsliding is essential if future standards are to be stringent in order to accelerate vehicle electrification. ICCT's work is going to not only demonstrate that the existing standards are easy to achieve, but also that standards could/should be tightened based on the available cost-effective technology pathways. Blog published on May 13, 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">ICCT has written a detailed commentary on Indiaâ€™s proposed scrappage program, which they consider to be a â€œscrappage Liteâ€ program. The blog is - 'Money talks in-vehicle retirement: Ways to strengthen India's scrappage program'. Published on April 30
+    <t xml:space="preserve">Blog  'Money talks in-vehicle retirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICCT has written a detailed commentary on India’s proposed scrappage program, which they consider to be a “scrappage Lite” program. The blog is - 'Money talks in-vehicle retirement: Ways to strengthen India's scrappage program'. Published on April 30
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article Being petroleum-independent</t>
   </si>
   <si>
     <t xml:space="preserve">In February 2021, ICCT published an op-ed piece in The Hindu 'Being petroleum independent' which argued that the road to less pain at the pump for Indian consumers goes through stringent fuel efficiency standards and zero emission vehicle mandates. Link to article (paywall): https://www.thehindu.com/opinion/op-ed/being-petroleum-independent/article33916640.ece
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Potential and Feasibility low/zero  emission zone in a key Indian city</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Process</t>
   </si>
   <si>
@@ -76,7 +94,40 @@
   </si>
   <si>
     <t xml:space="preserve">Second round of roundtable with IFIs and Govt. partners  on 'Potential and Feasibility low/zero 
-emission zone in a key Indian city' is planned for early December. Working paper on â€œFrameworks for Indian cities to establish LowEmission Zones (LEZ)â€ being outlined.</t>
+emission zone in a key Indian city' is planned for early December. Working paper on “Frameworks for Indian cities to establish LowEmission Zones (LEZ)” being outlined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newspaper article on 'Kevadia: A launch pad for a new era of urban vehicle access regulations in India?'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-Second Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In September 2021, ICCT published an op-ed titled ‘Kevadia: A launch pad for a new era of urban vehicle access regulations in India?’ in The Times of India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Emission Zones workshop in Sept 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainings/Webinars/Seminars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICCT reached out to Indian and international organizations for knowledge sharing on LEZs and for potential collaboration and conducted a workshop on LEZs with Indian research organizations in September 2021. These exchanges paved the way toward adapting the concept and global practices to the India context, which is the major work in 2022. During these discussions, everyone agreed that there is little clarity on the legal basis for implementing LEZs in India, without which adoption and enforcement will be difficult. Due to the relevance and importance of this subject, we started studying the legal framework to support clean air initiatives in India and the legal framework for LEZs around the world. We have completed the first draft of the paper and it will soon be sent for the first internal review.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round table with in Dec 2021 on Potential and Feasibility low/zero emission zone in a key Indian city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICCT is planning a 2nd round table with the government on Potential and Feasibility low/zero emission zone in a key Indian city to be held in December 2021.  This would feed into working paper on “Frameworks for Indian cities to establish Low Emission Zones (LEZ)” being outlined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel efficiency standards outreach efforts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-First Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICCT have finished several technical analyses regarding efficiency technologies. They are planning a round of outreach efforts to regulatory agencies to demonstrate the technology potential to achieve more stringent efficiency standards.</t>
   </si>
 </sst>
 </file>
@@ -172,13 +223,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -476,11 +527,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="30.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="30.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="70.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="30.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="70.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -504,105 +556,204 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/report/tables/ZEV/ICCT.xlsx
+++ b/report/tables/ZEV/ICCT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">ICCT</t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">2021-First Half</t>
   </si>
   <si>
-    <t xml:space="preserve">Communication pieces developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve awareness and adoption of EV</t>
+    <t xml:space="preserve">Communication pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve awareness &amp; adoption of EV</t>
   </si>
   <si>
     <t xml:space="preserve">The objective of the vehicle fuel efficiency work is to get India to adopt 2025-2030 standards on par 
@@ -81,16 +81,43 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from Low Emission Zones from EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from Low Emission Zones from EU, Nov 21: Briefing paper on ""A global overview of Zero Emission Zone (ZEZ) development progress"" is now being finalized, and includes content that we aimed to put under deliverable #4. We are somewhat modifying the workplan on this workstream by actually focusing on actually carrying out benefits assessments of an LEZ in an Indian city. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Comparative evaluation of non-fiscal Incentives to promote EVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Comparative evaluation of non-fiscal Incentives to promote EVs, Jun 21: This deliverable is significantly delayed at this stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Integrating low GWP refrigerants in India’s light vehicle FE standards,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Integrating low GWP refrigerants in India’s light vehicle FE standards, Sep 21: Detailed paper outline is ready. Analysis will begin in June.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Potential and uptake of hybrid electric vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Potential and uptake of hybrid electric vehicles: Draft of paper is ready, and undergoing review and revisions. We also used some time earlier in the year to dive deeper into EU mild hybrid technology and market, which will be very relevant to Indian market.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potential and Feasibility low/zero  emission zone in a key Indian city</t>
   </si>
   <si>
-    <t xml:space="preserve">In Process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convenings/workshops</t>
   </si>
   <si>
-    <t xml:space="preserve">Unlocking policy and regulatory barriers</t>
+    <t xml:space="preserve">Unlocking policy &amp; regulatory barriers</t>
   </si>
   <si>
     <t xml:space="preserve">Second round of roundtable with IFIs and Govt. partners  on 'Potential and Feasibility low/zero 
@@ -106,6 +133,37 @@
     <t xml:space="preserve">In September 2021, ICCT published an op-ed titled ‘Kevadia: A launch pad for a new era of urban vehicle access regulations in India?’ in The Times of India.</t>
   </si>
   <si>
+    <t xml:space="preserve">White paper on India’s light vehicle technology benefits and costs in 2025/2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White paper on India’s light vehicle technology benefits and costs in 2025/2030 - FY 2020-21 fleet summary and hybrid vehicle cost assessments are completed. Compliance cost of electric vehicles with advanced ICE technologies including off-cycle credits and super credits is under preparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from LEZs in EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from LEZs in EU, Nov 21 - Briefing paper on ""A global overview of Zero Emission Zone (ZEZ) development progress"" was published, includes content that we aimed to put under  deliverable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Integrating low GWP refrigerants in India’s light- FE standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Integrating low GWP refrigerants in India’s light- FE standards, Sep 21: Analysis has been completed, and paper preparation is underway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Potential and uptake of hybrid EVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Potential and uptake of hybrid EVs, Jul 21 - Draft of paper is ready, and undergoing review and revisions. We also used some time earlier in the year to dive deeper into EU mild hybrid technology and market, which will be very relevant to Indian market.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Comparative evaluation of nonfiscal Incentives to promote EVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Comparative evaluation of non-fiscal Incentives to promote EVs, Jun 21 - Analysis to compare various state EV policies, both quantitatively and qualitatively using the framework developed in ICCT’s state EV policy guidebook is nearing  completion, and a paper draft is under preparation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Low Emission Zones workshop in Sept 2021</t>
   </si>
   <si>
@@ -121,10 +179,56 @@
     <t xml:space="preserve">ICCT is planning a 2nd round table with the government on Potential and Feasibility low/zero emission zone in a key Indian city to be held in December 2021.  This would feed into working paper on “Frameworks for Indian cities to establish Low Emission Zones (LEZ)” being outlined.</t>
   </si>
   <si>
+    <t xml:space="preserve">Assessment of India’s vehicle taxation regime, and potential redesign to align with CO2 emission reduction target Jan 22- We have already assessed the PV taxation regime in India and in the process of conducting the compensation redistribution analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-First Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment of India’s vehicle taxation regime, and potential redesign to align with CO2 emission reduction target Jan 22- We have already assessed the PV taxation regime in India and in the process of conducting the compensation redistribution analysis. (Likely to be a policy framework/recommendation). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Charging Gap Analysis for a key Indian state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Charging Gap Analysis for a key Indian state, Aug 22 - The team has started to scope the study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White paper on India’s lightvehicle technology benefits and costs in 2025/2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White paper on India’s light-vehicle technology benefits and costs in 2025/2030, Jul 22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential and feasibility low/zero emission zone are a key Indian city Oct 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential and feasibility low/zero emission zone are a key Indian city Oct 2022-The draft paper is ready that includes – legal pathways used in India for clean air initiatives, legal frameworks available in various countries across the globe that have adopted LEZs, and drawing lessons for India from these global frameworks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from Low Emission Zones from EU for Indian States/Cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from Low Emission Zones from EU for Indian States/Cities Nov 21-There is a delay in hiring for this workstream. ICCT are catching up on this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Lessons/Best Practices from Low Emission Zones from EU, Nov 21 - Briefing paper on ""A global overview of Zero Emission Zone (ZEZ) in cities and their development progress"" is finalized and includes content that we aimed to put under deliverable #4. The team is conducting a series of information exchanges with local stakeholders and focusing on carrying out benefits assessments of an LEZ in an Indian city. The team is catching up on India specific working paper which has been affected during to delays in hiring. (Need to clarify what these exchanges are) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Comparative evaluation of nonfiscal Incentives to promote EVs, Jun 21 -We have established the main framework and methodologies for this evaluation. The publication is expected to be released in September 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper On Integrating low GWP refrigerants in India’s light vehicle FE standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper On Integrating low GWP refrigerants in India’s light vehicle FE standards, Sep 21 - The final paper is ready in word document. Waiting for copy editing. The final PDF document will be published on the ICCT website in July 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working paper on Potential and uptake of hybrid electric vehicles, Jul 21: The final paper is ready in word document. The final PDF document is under designed and will be published on the ICCT website in June 2022.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuel efficiency standards outreach efforts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-First Half</t>
   </si>
   <si>
     <t xml:space="preserve">ICCT have finished several technical analyses regarding efficiency technologies. They are planning a round of outreach efforts to regulatory agencies to demonstrate the technology potential to achieve more stringent efficiency standards.</t>
@@ -664,90 +768,450 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
